--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>大家</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>洗手间在哪</t>
+  </si>
+  <si>
+    <t>汽车站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>很</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去哪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭了吗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -602,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,546 +900,594 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>141</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B56" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B75" s="2">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>191</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>168</v>
+      </c>
+      <c r="B76" s="2">
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>258</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>259</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>135</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>238</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>260</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>261</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>大家</t>
   </si>
@@ -222,33 +222,6 @@
     <t>大家好</t>
   </si>
   <si>
-    <t>很高兴认识你</t>
-  </si>
-  <si>
-    <r>
-      <t>我们是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Myo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>团队</t>
-    </r>
-  </si>
-  <si>
     <t>我已经好久没看见你了</t>
   </si>
   <si>
@@ -262,46 +235,56 @@
   </si>
   <si>
     <t>汽车站</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>叫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>很</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭了吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>你去哪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃饭了吗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myo团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -340,7 +323,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -626,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,7 +886,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1407,7 +1390,7 @@
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1415,7 +1398,7 @@
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1423,7 +1406,7 @@
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1414,7 @@
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1439,7 +1422,7 @@
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1447,7 +1430,7 @@
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1455,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1446,7 @@
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,7 +1454,7 @@
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,11 +1470,27 @@
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>262</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>大家</t>
   </si>
@@ -36,16 +36,7 @@
     <t>和</t>
   </si>
   <si>
-    <t>同</t>
-  </si>
-  <si>
     <t>学</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
   <si>
     <t>爸爸</t>
@@ -270,7 +261,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认识你</t>
+    <t>认识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +749,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,7 +789,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +797,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,7 +805,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,7 +813,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +821,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +829,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +837,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +845,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +853,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -846,7 +861,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +869,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,7 +877,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,7 +885,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -878,7 +893,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,7 +901,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,7 +909,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,7 +917,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,7 +925,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +933,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,7 +941,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -934,7 +949,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,7 +957,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -950,7 +965,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -958,7 +973,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,7 +981,7 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +989,7 @@
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +997,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +1005,7 @@
         <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -998,7 +1013,7 @@
         <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1245,7 @@
         <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1253,7 @@
         <v>192</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1261,7 @@
         <v>193</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1269,7 @@
         <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1277,7 @@
         <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1285,7 @@
         <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1293,7 @@
         <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1301,7 @@
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1309,7 @@
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1317,7 @@
         <v>214</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1325,7 @@
         <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1333,7 @@
         <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1341,7 @@
         <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1349,7 @@
         <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1357,7 @@
         <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1365,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1373,7 @@
         <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1381,7 @@
         <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1389,7 @@
         <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1397,7 @@
         <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1405,7 @@
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1413,7 @@
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1421,7 @@
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1429,7 @@
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1437,7 @@
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1445,7 @@
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1453,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1461,7 @@
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1469,7 @@
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1477,7 @@
         <v>260</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1485,7 @@
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1501,31 @@
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>263</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>137</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>大家</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>呢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,6 +1552,54 @@
         <v>83</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>215</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>216</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>239</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>240</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>217</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>218</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>大家</t>
   </si>
@@ -310,6 +310,38 @@
   </si>
   <si>
     <t>把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1600,6 +1632,70 @@
         <v>89</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>38</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>39</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>77</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>219</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>220</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>221</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>大家</t>
   </si>
@@ -342,6 +342,66 @@
   </si>
   <si>
     <t>以后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1696,6 +1756,126 @@
         <v>97</v>
       </c>
     </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>241</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>242</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>264</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>265</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>243</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>222</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>223</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>224</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>42</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>78</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>79</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>225</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>226</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>244</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>227</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="19410" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>大家</t>
   </si>
@@ -36,9 +31,18 @@
     <t>和</t>
   </si>
   <si>
+    <t>同学</t>
+  </si>
+  <si>
     <t>学</t>
   </si>
   <si>
+    <t>儿子</t>
+  </si>
+  <si>
+    <t>女儿</t>
+  </si>
+  <si>
     <t>爸爸</t>
   </si>
   <si>
@@ -111,6 +115,9 @@
     <t>机场</t>
   </si>
   <si>
+    <t>汽车站</t>
+  </si>
+  <si>
     <t>坐</t>
   </si>
   <si>
@@ -180,6 +187,9 @@
     <t>没有</t>
   </si>
   <si>
+    <t>看</t>
+  </si>
+  <si>
     <t>爱</t>
   </si>
   <si>
@@ -210,6 +220,12 @@
     <t>大家好</t>
   </si>
   <si>
+    <t>认识</t>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+  </si>
+  <si>
     <t>我已经好久没看见你了</t>
   </si>
   <si>
@@ -222,238 +238,500 @@
     <t>洗手间在哪</t>
   </si>
   <si>
-    <t>汽车站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>叫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去哪</t>
   </si>
   <si>
     <t>吃饭了吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你去哪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子科技大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Myo团队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>认识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>我们是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>怎么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吗</t>
   </si>
   <si>
     <t>看书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>幸福</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>给</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>把</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>今天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>昨天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>明天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>走</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>喜欢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>希望</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>我们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>很好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>但是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>告诉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>周末</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>准备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>抱歉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成2</t>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -461,9 +739,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -474,19 +994,58 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -495,7 +1054,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -533,7 +1092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -568,7 +1127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -743,25 +1302,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -769,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -777,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -785,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -793,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -801,351 +1356,351 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>141</v>
       </c>
@@ -1153,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>142</v>
       </c>
@@ -1161,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>143</v>
       </c>
@@ -1169,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>144</v>
       </c>
@@ -1177,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>145</v>
       </c>
@@ -1185,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>146</v>
       </c>
@@ -1193,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>147</v>
       </c>
@@ -1201,7 +1756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>148</v>
       </c>
@@ -1209,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>149</v>
       </c>
@@ -1217,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>150</v>
       </c>
@@ -1225,7 +1780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>151</v>
       </c>
@@ -1233,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>152</v>
       </c>
@@ -1241,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>153</v>
       </c>
@@ -1249,7 +1804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>154</v>
       </c>
@@ -1257,7 +1812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>155</v>
       </c>
@@ -1265,7 +1820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>156</v>
       </c>
@@ -1273,7 +1828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>157</v>
       </c>
@@ -1281,7 +1836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>158</v>
       </c>
@@ -1289,7 +1844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>159</v>
       </c>
@@ -1297,7 +1852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>160</v>
       </c>
@@ -1305,7 +1860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>161</v>
       </c>
@@ -1313,7 +1868,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>162</v>
       </c>
@@ -1321,7 +1876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>163</v>
       </c>
@@ -1329,7 +1884,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>164</v>
       </c>
@@ -1337,7 +1892,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>165</v>
       </c>
@@ -1345,7 +1900,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>166</v>
       </c>
@@ -1353,7 +1908,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>167</v>
       </c>
@@ -1361,7 +1916,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>168</v>
       </c>
@@ -1369,553 +1924,553 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>192</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>193</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>214</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>260</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>136</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>137</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>239</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>218</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>38</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>39</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>77</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>219</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>223</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>400</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>401</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>402</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>大家</t>
   </si>
@@ -340,6 +340,9 @@
     <t>地址</t>
   </si>
   <si>
+    <t>居住</t>
+  </si>
+  <si>
     <t>准备</t>
   </si>
   <si>
@@ -350,6 +353,36 @@
   </si>
   <si>
     <t>成功</t>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>忙</t>
+  </si>
+  <si>
+    <t>考试</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>锅</t>
   </si>
   <si>
     <t>完成2</t>
@@ -366,9 +399,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -394,7 +427,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,47 +479,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,14 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -477,9 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,15 +539,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,21 +569,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -546,187 +579,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,31 +786,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +817,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,171 +849,169 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1308,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2417,7 +2450,7 @@
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2425,7 +2458,7 @@
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2433,7 +2466,7 @@
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2441,31 +2474,111 @@
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
+        <v>229</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>230</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>231</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>232</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>233</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>234</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>235</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>236</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>400</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>401</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
         <v>402</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>114</v>
+      <c r="B154" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -379,10 +379,10 @@
     <t>能</t>
   </si>
   <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>锅</t>
+    <t>火锅</t>
+  </si>
+  <si>
+    <t>比较</t>
   </si>
   <si>
     <t>完成2</t>
@@ -399,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -426,18 +426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,8 +441,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,32 +487,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,10 +510,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,17 +525,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,15 +564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,187 +579,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,15 +782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -802,6 +793,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,172 +870,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1343,8 +1343,8 @@
   <sheetPr/>
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -399,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -426,11 +426,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,28 +472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +483,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,6 +509,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -502,31 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,13 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -555,9 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,25 +579,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +651,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,145 +735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +778,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,54 +862,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -855,163 +870,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1343,8 +1343,8 @@
   <sheetPr/>
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>117</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>118</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>119</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>120</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>121</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>122</v>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{883007AD-CDBB-4DD9-90E8-32D35350E43E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>大家</t>
   </si>
@@ -118,9 +124,6 @@
     <t>汽车站</t>
   </si>
   <si>
-    <t>坐</t>
-  </si>
-  <si>
     <t>火车</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>没有</t>
   </si>
   <si>
-    <t>看</t>
-  </si>
-  <si>
     <t>爱</t>
   </si>
   <si>
@@ -392,19 +392,21 @@
   </si>
   <si>
     <t>删除</t>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,352 +421,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -772,253 +450,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1026,59 +462,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1087,7 +487,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1339,17 +739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1357,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1365,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1373,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1381,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1389,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1397,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1405,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1413,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1421,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1429,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1437,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1445,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1453,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1461,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>31</v>
       </c>
@@ -1469,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1477,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>33</v>
       </c>
@@ -1485,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1493,7 +892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1501,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1509,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>51</v>
       </c>
@@ -1517,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>52</v>
       </c>
@@ -1525,7 +924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>53</v>
       </c>
@@ -1533,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>54</v>
       </c>
@@ -1541,7 +940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>55</v>
       </c>
@@ -1549,7 +948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>56</v>
       </c>
@@ -1557,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>57</v>
       </c>
@@ -1565,7 +964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>71</v>
       </c>
@@ -1573,7 +972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>72</v>
       </c>
@@ -1581,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>73</v>
       </c>
@@ -1589,7 +988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>74</v>
       </c>
@@ -1597,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1605,7 +1004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>76</v>
       </c>
@@ -1613,7 +1012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>77</v>
       </c>
@@ -1621,119 +1020,119 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>141</v>
       </c>
@@ -1741,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>142</v>
       </c>
@@ -1749,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>143</v>
       </c>
@@ -1757,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>144</v>
       </c>
@@ -1765,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>145</v>
       </c>
@@ -1773,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>146</v>
       </c>
@@ -1781,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>147</v>
       </c>
@@ -1789,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>148</v>
       </c>
@@ -1797,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>149</v>
       </c>
@@ -1805,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>150</v>
       </c>
@@ -1813,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>151</v>
       </c>
@@ -1821,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>152</v>
       </c>
@@ -1829,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>153</v>
       </c>
@@ -1837,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>154</v>
       </c>
@@ -1845,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>155</v>
       </c>
@@ -1853,7 +1252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>156</v>
       </c>
@@ -1861,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>157</v>
       </c>
@@ -1869,7 +1268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>158</v>
       </c>
@@ -1877,7 +1276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>159</v>
       </c>
@@ -1885,7 +1284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>160</v>
       </c>
@@ -1893,7 +1292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>161</v>
       </c>
@@ -1901,7 +1300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>162</v>
       </c>
@@ -1909,7 +1308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>163</v>
       </c>
@@ -1917,7 +1316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>164</v>
       </c>
@@ -1925,7 +1324,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>165</v>
       </c>
@@ -1933,7 +1332,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>166</v>
       </c>
@@ -1941,7 +1340,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>167</v>
       </c>
@@ -1949,7 +1348,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>168</v>
       </c>
@@ -1957,633 +1356,633 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>192</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>193</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>214</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="B86" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>260</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>136</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>137</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>239</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>218</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>38</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>39</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>77</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>219</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>223</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>301</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>304</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>305</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>400</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>401</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>402</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{883007AD-CDBB-4DD9-90E8-32D35350E43E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19410" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>大家</t>
   </si>
@@ -124,6 +118,9 @@
     <t>汽车站</t>
   </si>
   <si>
+    <t>做</t>
+  </si>
+  <si>
     <t>火车</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
     <t>没有</t>
   </si>
   <si>
+    <t>看见</t>
+  </si>
+  <si>
     <t>爱</t>
   </si>
   <si>
@@ -301,9 +301,6 @@
     <t>要</t>
   </si>
   <si>
-    <t>做</t>
-  </si>
-  <si>
     <t>见</t>
   </si>
   <si>
@@ -385,28 +382,23 @@
     <t>比较</t>
   </si>
   <si>
-    <t>完成2</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
     <t>删除</t>
-  </si>
-  <si>
-    <t>做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,28 +413,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -450,9 +772,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -462,23 +1026,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -487,7 +1090,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -739,16 +1342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A152" sqref="$A152:$XFD152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -756,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -764,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -772,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -780,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -788,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -796,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -804,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -812,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -820,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -828,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -836,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -844,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -852,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -860,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>31</v>
       </c>
@@ -868,7 +1472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>32</v>
       </c>
@@ -876,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>33</v>
       </c>
@@ -884,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>34</v>
       </c>
@@ -892,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>35</v>
       </c>
@@ -900,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>36</v>
       </c>
@@ -908,7 +1512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>51</v>
       </c>
@@ -916,7 +1520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>52</v>
       </c>
@@ -924,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>53</v>
       </c>
@@ -932,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>54</v>
       </c>
@@ -940,7 +1544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>55</v>
       </c>
@@ -948,7 +1552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -956,7 +1560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>57</v>
       </c>
@@ -964,7 +1568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>71</v>
       </c>
@@ -972,7 +1576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>72</v>
       </c>
@@ -980,7 +1584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>73</v>
       </c>
@@ -988,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>74</v>
       </c>
@@ -996,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1004,7 +1608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>76</v>
       </c>
@@ -1012,7 +1616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>77</v>
       </c>
@@ -1020,119 +1624,119 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>141</v>
       </c>
@@ -1140,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>142</v>
       </c>
@@ -1148,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>143</v>
       </c>
@@ -1156,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>144</v>
       </c>
@@ -1164,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>145</v>
       </c>
@@ -1172,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>146</v>
       </c>
@@ -1180,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>147</v>
       </c>
@@ -1188,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>148</v>
       </c>
@@ -1196,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>149</v>
       </c>
@@ -1204,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>150</v>
       </c>
@@ -1212,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>151</v>
       </c>
@@ -1220,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>152</v>
       </c>
@@ -1228,7 +1832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>153</v>
       </c>
@@ -1236,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>154</v>
       </c>
@@ -1244,7 +1848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>155</v>
       </c>
@@ -1252,7 +1856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>156</v>
       </c>
@@ -1260,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>157</v>
       </c>
@@ -1268,7 +1872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>158</v>
       </c>
@@ -1276,7 +1880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>159</v>
       </c>
@@ -1284,7 +1888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>160</v>
       </c>
@@ -1292,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>161</v>
       </c>
@@ -1300,7 +1904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>162</v>
       </c>
@@ -1308,7 +1912,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>163</v>
       </c>
@@ -1316,7 +1920,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>164</v>
       </c>
@@ -1324,7 +1928,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>165</v>
       </c>
@@ -1332,7 +1936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>166</v>
       </c>
@@ -1340,7 +1944,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>167</v>
       </c>
@@ -1348,7 +1952,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>168</v>
       </c>
@@ -1356,633 +1960,625 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>192</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>193</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>196</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>211</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>214</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>260</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>136</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>137</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>239</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>218</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>38</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>39</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>77</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>219</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>223</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>301</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>304</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>305</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154">
-        <v>402</v>
-      </c>
-      <c r="B154" s="1" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>大家</t>
   </si>
@@ -88,7 +88,7 @@
     <t>谢谢</t>
   </si>
   <si>
-    <t>不</t>
+    <t>没有</t>
   </si>
   <si>
     <t>用</t>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>钱包</t>
-  </si>
-  <si>
-    <t>没有</t>
   </si>
   <si>
     <t>看见</t>
@@ -395,22 +392,16 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -433,11 +424,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,63 +477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,6 +489,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,8 +522,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,13 +576,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +654,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,67 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,49 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,26 +782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,6 +793,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,164 +850,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1346,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A152" sqref="$A152:$XFD152"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2029,15 +2017,15 @@
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
         <v>214</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>57</v>
+      <c r="B86" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2045,7 +2033,7 @@
         <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2053,7 +2041,7 @@
         <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2061,7 +2049,7 @@
         <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2069,7 +2057,7 @@
         <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2077,7 +2065,7 @@
         <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2085,7 +2073,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2093,7 +2081,7 @@
         <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2101,7 +2089,7 @@
         <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2109,7 +2097,7 @@
         <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2117,7 +2105,7 @@
         <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2125,7 +2113,7 @@
         <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2133,7 +2121,7 @@
         <v>255</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2141,7 +2129,7 @@
         <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2149,7 +2137,7 @@
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2157,7 +2145,7 @@
         <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2165,7 +2153,7 @@
         <v>259</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2173,7 +2161,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2181,7 +2169,7 @@
         <v>135</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2189,7 +2177,7 @@
         <v>238</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2197,7 +2185,7 @@
         <v>260</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2205,7 +2193,7 @@
         <v>261</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2213,7 +2201,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2221,7 +2209,7 @@
         <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2229,7 +2217,7 @@
         <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2237,7 +2225,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2245,7 +2233,7 @@
         <v>137</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2253,7 +2241,7 @@
         <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2261,7 +2249,7 @@
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2269,7 +2257,7 @@
         <v>239</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2277,7 +2265,7 @@
         <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2285,7 +2273,7 @@
         <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2293,7 +2281,7 @@
         <v>218</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2301,7 +2289,7 @@
         <v>38</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2309,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2317,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2325,7 +2313,7 @@
         <v>77</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2333,7 +2321,7 @@
         <v>219</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2349,7 +2337,7 @@
         <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2357,7 +2345,7 @@
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2365,7 +2353,7 @@
         <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2373,7 +2361,7 @@
         <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2381,7 +2369,7 @@
         <v>264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2389,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2397,7 +2385,7 @@
         <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2405,7 +2393,7 @@
         <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2413,7 +2401,7 @@
         <v>223</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2421,7 +2409,7 @@
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2429,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2437,7 +2425,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2445,7 +2433,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2453,7 +2441,7 @@
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2461,7 +2449,7 @@
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2469,7 +2457,7 @@
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2477,7 +2465,7 @@
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2485,7 +2473,7 @@
         <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2493,7 +2481,7 @@
         <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2501,7 +2489,7 @@
         <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2509,7 +2497,7 @@
         <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2517,7 +2505,7 @@
         <v>301</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2525,7 +2513,7 @@
         <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2533,7 +2521,7 @@
         <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2541,7 +2529,7 @@
         <v>304</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2549,7 +2537,7 @@
         <v>305</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2557,7 +2545,7 @@
         <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2565,7 +2553,7 @@
         <v>401</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2573,7 +2561,7 @@
         <v>402</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intel杯\MYO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>大家</t>
   </si>
@@ -88,314 +93,351 @@
     <t>谢谢</t>
   </si>
   <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>到</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>站</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>汽车站</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>公交车</t>
+  </si>
+  <si>
+    <t>大巴</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>票</t>
+  </si>
+  <si>
+    <t>证</t>
+  </si>
+  <si>
+    <t>身份</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>多少</t>
+  </si>
+  <si>
+    <t>哪里</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>饭</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>果汁</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>钱包</t>
+  </si>
+  <si>
     <t>没有</t>
   </si>
   <si>
-    <t>用</t>
-  </si>
-  <si>
-    <t>再见</t>
-  </si>
-  <si>
-    <t>去</t>
-  </si>
-  <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>到</t>
-  </si>
-  <si>
-    <t>家</t>
-  </si>
-  <si>
-    <t>站</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>汽车站</t>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>危险</t>
+  </si>
+  <si>
+    <t>误会</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>不要</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>你们好</t>
+  </si>
+  <si>
+    <t>大家好</t>
+  </si>
+  <si>
+    <t>认识</t>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+  </si>
+  <si>
+    <t>我已经好久没看见你了</t>
+  </si>
+  <si>
+    <t>你是哪里人</t>
+  </si>
+  <si>
+    <t>等会见</t>
+  </si>
+  <si>
+    <t>洗手间在哪</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>你去哪</t>
+  </si>
+  <si>
+    <t>吃饭了吗</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Myo团队</t>
+  </si>
+  <si>
+    <t>我们是</t>
+  </si>
+  <si>
+    <t>怎么</t>
+  </si>
+  <si>
+    <t>吗</t>
+  </si>
+  <si>
+    <t>看书</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>幸福</t>
+  </si>
+  <si>
+    <t>久</t>
+  </si>
+  <si>
+    <t>给</t>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>昨天</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
+    <t>要</t>
   </si>
   <si>
     <t>做</t>
   </si>
   <si>
-    <t>火车</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>公交车</t>
-  </si>
-  <si>
-    <t>大巴</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>票</t>
-  </si>
-  <si>
-    <t>证</t>
-  </si>
-  <si>
-    <t>身份</t>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>问</t>
-  </si>
-  <si>
-    <t>什么</t>
-  </si>
-  <si>
-    <t>多少</t>
-  </si>
-  <si>
-    <t>哪里</t>
-  </si>
-  <si>
-    <t>吃</t>
-  </si>
-  <si>
-    <t>饭</t>
-  </si>
-  <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>啤酒</t>
-  </si>
-  <si>
-    <t>果汁</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>钱包</t>
+    <t>见</t>
+  </si>
+  <si>
+    <t>以后</t>
+  </si>
+  <si>
+    <t>喜欢</t>
+  </si>
+  <si>
+    <t>希望</t>
+  </si>
+  <si>
+    <t>我们</t>
+  </si>
+  <si>
+    <t>很好</t>
+  </si>
+  <si>
+    <t>但是</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>告诉</t>
+  </si>
+  <si>
+    <t>周末</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>居住</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>玩</t>
+  </si>
+  <si>
+    <t>抱歉</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>忙</t>
+  </si>
+  <si>
+    <t>考试</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>火锅</t>
+  </si>
+  <si>
+    <t>比较</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>早上好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看见你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去玩吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看见</t>
-  </si>
-  <si>
-    <t>爱</t>
-  </si>
-  <si>
-    <t>我爱你</t>
-  </si>
-  <si>
-    <t>高兴</t>
-  </si>
-  <si>
-    <t>危险</t>
-  </si>
-  <si>
-    <t>误会</t>
-  </si>
-  <si>
-    <t>想</t>
-  </si>
-  <si>
-    <t>不要</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>你们好</t>
-  </si>
-  <si>
-    <t>大家好</t>
-  </si>
-  <si>
-    <t>认识</t>
-  </si>
-  <si>
-    <t>电子科技大学</t>
-  </si>
-  <si>
-    <t>我已经好久没看见你了</t>
-  </si>
-  <si>
-    <t>你是哪里人</t>
-  </si>
-  <si>
-    <t>等会见</t>
-  </si>
-  <si>
-    <t>洗手间在哪</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>叫</t>
-  </si>
-  <si>
-    <t>很</t>
-  </si>
-  <si>
-    <t>你去哪</t>
-  </si>
-  <si>
-    <t>吃饭了吗</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>Myo团队</t>
-  </si>
-  <si>
-    <t>我们是</t>
-  </si>
-  <si>
-    <t>怎么</t>
-  </si>
-  <si>
-    <t>吗</t>
-  </si>
-  <si>
-    <t>看书</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>幸福</t>
-  </si>
-  <si>
-    <t>久</t>
-  </si>
-  <si>
-    <t>给</t>
-  </si>
-  <si>
-    <t>把</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>昨天</t>
-  </si>
-  <si>
-    <t>明天</t>
-  </si>
-  <si>
-    <t>走</t>
-  </si>
-  <si>
-    <t>要</t>
-  </si>
-  <si>
-    <t>见</t>
-  </si>
-  <si>
-    <t>以后</t>
-  </si>
-  <si>
-    <t>喜欢</t>
-  </si>
-  <si>
-    <t>希望</t>
-  </si>
-  <si>
-    <t>我们</t>
-  </si>
-  <si>
-    <t>很好</t>
-  </si>
-  <si>
-    <t>但是</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>电影</t>
-  </si>
-  <si>
-    <t>告诉</t>
-  </si>
-  <si>
-    <t>周末</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>居住</t>
-  </si>
-  <si>
-    <t>准备</t>
-  </si>
-  <si>
-    <t>玩</t>
-  </si>
-  <si>
-    <t>抱歉</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>最近</t>
-  </si>
-  <si>
-    <t>忙</t>
-  </si>
-  <si>
-    <t>考试</t>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>一起</t>
-  </si>
-  <si>
-    <t>了</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>火锅</t>
-  </si>
-  <si>
-    <t>比较</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,355 +449,26 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -763,251 +476,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1018,58 +489,19 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1078,7 +510,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1330,17 +762,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1348,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1356,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1364,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1372,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1380,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1388,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1396,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1404,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1412,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1420,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1428,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1436,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1444,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1452,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>31</v>
       </c>
@@ -1460,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1468,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>33</v>
       </c>
@@ -1476,7 +907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1484,7 +915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1492,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1500,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>51</v>
       </c>
@@ -1508,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>52</v>
       </c>
@@ -1516,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>53</v>
       </c>
@@ -1524,7 +955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>54</v>
       </c>
@@ -1532,7 +963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>55</v>
       </c>
@@ -1540,7 +971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -1548,7 +979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>57</v>
       </c>
@@ -1556,7 +987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>71</v>
       </c>
@@ -1564,7 +995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>72</v>
       </c>
@@ -1572,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>73</v>
       </c>
@@ -1580,7 +1011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>74</v>
       </c>
@@ -1588,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>75</v>
       </c>
@@ -1596,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>76</v>
       </c>
@@ -1604,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>77</v>
       </c>
@@ -1612,7 +1043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>101</v>
       </c>
@@ -1620,7 +1051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>102</v>
       </c>
@@ -1628,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>103</v>
       </c>
@@ -1636,7 +1067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>104</v>
       </c>
@@ -1644,7 +1075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>105</v>
       </c>
@@ -1652,7 +1083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>106</v>
       </c>
@@ -1660,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>107</v>
       </c>
@@ -1668,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>121</v>
       </c>
@@ -1676,7 +1107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>122</v>
       </c>
@@ -1684,7 +1115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>123</v>
       </c>
@@ -1692,7 +1123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>131</v>
       </c>
@@ -1700,7 +1131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>132</v>
       </c>
@@ -1708,7 +1139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>133</v>
       </c>
@@ -1716,7 +1147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>134</v>
       </c>
@@ -1724,7 +1155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>141</v>
       </c>
@@ -1732,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>142</v>
       </c>
@@ -1740,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>143</v>
       </c>
@@ -1748,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>144</v>
       </c>
@@ -1756,7 +1187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>145</v>
       </c>
@@ -1764,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>146</v>
       </c>
@@ -1772,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>147</v>
       </c>
@@ -1780,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>148</v>
       </c>
@@ -1788,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>149</v>
       </c>
@@ -1796,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>150</v>
       </c>
@@ -1804,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>151</v>
       </c>
@@ -1812,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>152</v>
       </c>
@@ -1820,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>153</v>
       </c>
@@ -1828,7 +1259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>154</v>
       </c>
@@ -1836,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>155</v>
       </c>
@@ -1844,7 +1275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>156</v>
       </c>
@@ -1852,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>157</v>
       </c>
@@ -1860,7 +1291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>158</v>
       </c>
@@ -1868,7 +1299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>159</v>
       </c>
@@ -1876,7 +1307,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>160</v>
       </c>
@@ -1884,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>161</v>
       </c>
@@ -1892,7 +1323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>162</v>
       </c>
@@ -1900,7 +1331,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>163</v>
       </c>
@@ -1908,7 +1339,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>164</v>
       </c>
@@ -1916,7 +1347,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>165</v>
       </c>
@@ -1924,7 +1355,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>166</v>
       </c>
@@ -1932,7 +1363,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>167</v>
       </c>
@@ -1940,7 +1371,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>168</v>
       </c>
@@ -1948,7 +1379,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>191</v>
       </c>
@@ -1956,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>192</v>
       </c>
@@ -1964,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>193</v>
       </c>
@@ -1972,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>194</v>
       </c>
@@ -1980,7 +1411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>195</v>
       </c>
@@ -1988,7 +1419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>196</v>
       </c>
@@ -1996,7 +1427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>211</v>
       </c>
@@ -2004,7 +1435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>212</v>
       </c>
@@ -2012,23 +1443,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>213</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>214</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>231</v>
       </c>
@@ -2036,7 +1467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>232</v>
       </c>
@@ -2044,7 +1475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>233</v>
       </c>
@@ -2052,7 +1483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>234</v>
       </c>
@@ -2060,7 +1491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>235</v>
       </c>
@@ -2068,7 +1499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>236</v>
       </c>
@@ -2076,7 +1507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>237</v>
       </c>
@@ -2084,7 +1515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>251</v>
       </c>
@@ -2092,7 +1523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>252</v>
       </c>
@@ -2100,7 +1531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>253</v>
       </c>
@@ -2108,7 +1539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>254</v>
       </c>
@@ -2116,7 +1547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>255</v>
       </c>
@@ -2124,7 +1555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>256</v>
       </c>
@@ -2132,7 +1563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>257</v>
       </c>
@@ -2140,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>258</v>
       </c>
@@ -2148,7 +1579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>259</v>
       </c>
@@ -2156,7 +1587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>37</v>
       </c>
@@ -2164,7 +1595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>135</v>
       </c>
@@ -2172,7 +1603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>238</v>
       </c>
@@ -2180,7 +1611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>260</v>
       </c>
@@ -2188,7 +1619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>261</v>
       </c>
@@ -2196,7 +1627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>15</v>
       </c>
@@ -2204,7 +1635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>262</v>
       </c>
@@ -2212,7 +1643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>263</v>
       </c>
@@ -2220,7 +1651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>136</v>
       </c>
@@ -2228,7 +1659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>137</v>
       </c>
@@ -2236,7 +1667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>215</v>
       </c>
@@ -2244,7 +1675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>216</v>
       </c>
@@ -2252,7 +1683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>239</v>
       </c>
@@ -2260,7 +1691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>240</v>
       </c>
@@ -2268,7 +1699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>217</v>
       </c>
@@ -2276,7 +1707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>218</v>
       </c>
@@ -2284,7 +1715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -2292,7 +1723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>39</v>
       </c>
@@ -2300,7 +1731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>40</v>
       </c>
@@ -2308,7 +1739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>77</v>
       </c>
@@ -2316,7 +1747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>219</v>
       </c>
@@ -2324,249 +1755,321 @@
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>220</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>242</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>222</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>223</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>78</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>225</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>244</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>227</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>228</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>229</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>230</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>301</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>302</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>304</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>305</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>401</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>402</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>266</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>267</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>268</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>269</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>270</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>271</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>272</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>307</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>308</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>